--- a/Doc/iApply_Integration.xlsx
+++ b/Doc/iApply_Integration.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ven-talent-axwar\Documents\ACWAR\iApply\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ven-talent-axwar\Documents\ACWAR\iApply_Integration\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F45A1C-3FDF-4185-898C-9E790EF20610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D939B91B-7695-4A70-84D3-771EAA942D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{89D5BFD2-F8FE-4C40-A489-08526D236723}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Changes_To_Made " sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">iApply_Integration_Overall_Stat!$A$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">iApply_Integration_Overall_Stat!$A$1:$P$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="192">
   <si>
     <t>iApply Form Name</t>
   </si>
@@ -633,6 +633,12 @@
   </si>
   <si>
     <t>LIVE 26/05/2022 [3pm]</t>
+  </si>
+  <si>
+    <t>VAR</t>
+  </si>
+  <si>
+    <t>ODO</t>
   </si>
 </sst>
 </file>
@@ -1012,6 +1018,30 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1023,30 +1053,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1367,13 +1373,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7847A0BE-24C9-4B51-84A9-78CA288F75CC}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1483,7 +1489,7 @@
       <c r="M2" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="N2" s="61" t="s">
+      <c r="N2" s="57" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="31" t="s">
@@ -1533,7 +1539,7 @@
       <c r="M3" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="N3" s="61" t="s">
+      <c r="N3" s="57" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="31" t="s">
@@ -1543,7 +1549,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="1" customFormat="1">
+    <row r="4" spans="1:16" s="1" customFormat="1" hidden="1">
       <c r="A4" s="20">
         <v>3</v>
       </c>
@@ -1583,7 +1589,7 @@
       <c r="M4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="62">
+      <c r="N4" s="58">
         <v>44694</v>
       </c>
       <c r="O4" s="20" t="s">
@@ -1593,7 +1599,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="1" customFormat="1">
+    <row r="5" spans="1:16" s="1" customFormat="1" hidden="1">
       <c r="A5" s="20">
         <v>4</v>
       </c>
@@ -1633,7 +1639,7 @@
       <c r="M5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="62">
+      <c r="N5" s="58">
         <v>44694</v>
       </c>
       <c r="O5" s="20" t="s">
@@ -1647,7 +1653,9 @@
       <c r="A6" s="20">
         <v>5</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="19" t="s">
+        <v>190</v>
+      </c>
       <c r="C6" s="19" t="s">
         <v>185</v>
       </c>
@@ -1679,11 +1687,11 @@
       <c r="M6" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="N6" s="62"/>
+      <c r="N6" s="58"/>
       <c r="O6" s="20"/>
       <c r="P6" s="39"/>
     </row>
-    <row r="7" spans="1:16" s="1" customFormat="1">
+    <row r="7" spans="1:16" s="1" customFormat="1" hidden="1">
       <c r="A7" s="20">
         <v>6</v>
       </c>
@@ -1723,7 +1731,7 @@
       <c r="M7" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="62">
+      <c r="N7" s="58">
         <v>44582</v>
       </c>
       <c r="O7" s="20" t="s">
@@ -1733,7 +1741,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="1" customFormat="1">
+    <row r="8" spans="1:16" s="1" customFormat="1" hidden="1">
       <c r="A8" s="20">
         <v>7</v>
       </c>
@@ -1773,7 +1781,7 @@
       <c r="M8" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="N8" s="62">
+      <c r="N8" s="58">
         <v>44568</v>
       </c>
       <c r="O8" s="20" t="s">
@@ -1823,7 +1831,7 @@
       <c r="M9" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="N9" s="62">
+      <c r="N9" s="58">
         <v>44919</v>
       </c>
       <c r="O9" s="31" t="s">
@@ -1833,7 +1841,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="1" customFormat="1">
+    <row r="10" spans="1:16" s="1" customFormat="1" hidden="1">
       <c r="A10" s="20">
         <v>9</v>
       </c>
@@ -1873,7 +1881,7 @@
       <c r="M10" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="N10" s="62">
+      <c r="N10" s="58">
         <v>44680</v>
       </c>
       <c r="O10" s="20" t="s">
@@ -1883,7 +1891,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="1" customFormat="1">
+    <row r="11" spans="1:16" s="1" customFormat="1" hidden="1">
       <c r="A11" s="20">
         <v>10</v>
       </c>
@@ -1923,7 +1931,7 @@
       <c r="M11" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="N11" s="63">
+      <c r="N11" s="59">
         <v>44708</v>
       </c>
       <c r="O11" s="20" t="s">
@@ -1933,7 +1941,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="2" customFormat="1" ht="25.5" customHeight="1">
+    <row r="12" spans="1:16" s="2" customFormat="1" ht="25.5" hidden="1" customHeight="1">
       <c r="A12" s="20">
         <v>11</v>
       </c>
@@ -1973,7 +1981,7 @@
       <c r="M12" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="N12" s="63">
+      <c r="N12" s="59">
         <v>44540</v>
       </c>
       <c r="O12" s="20" t="s">
@@ -1983,7 +1991,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="2" customFormat="1" ht="25.5" customHeight="1">
+    <row r="13" spans="1:16" s="2" customFormat="1" ht="25.5" hidden="1" customHeight="1">
       <c r="A13" s="20">
         <v>12</v>
       </c>
@@ -2023,7 +2031,7 @@
       <c r="M13" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="N13" s="63">
+      <c r="N13" s="59">
         <v>44666</v>
       </c>
       <c r="O13" s="20" t="s">
@@ -2033,7 +2041,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="1" customFormat="1">
+    <row r="14" spans="1:16" s="1" customFormat="1" hidden="1">
       <c r="A14" s="20">
         <v>13</v>
       </c>
@@ -2073,7 +2081,7 @@
       <c r="M14" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="62">
+      <c r="N14" s="58">
         <v>44652</v>
       </c>
       <c r="O14" s="20" t="s">
@@ -2083,7 +2091,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="52" customFormat="1" ht="25.5" customHeight="1">
+    <row r="15" spans="1:16" s="52" customFormat="1" ht="25.5" hidden="1" customHeight="1">
       <c r="A15" s="20">
         <v>14</v>
       </c>
@@ -2123,7 +2131,7 @@
       <c r="M15" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="N15" s="63">
+      <c r="N15" s="59">
         <v>44526</v>
       </c>
       <c r="O15" s="20" t="s">
@@ -2173,7 +2181,7 @@
       <c r="M16" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="N16" s="62">
+      <c r="N16" s="58">
         <v>44610</v>
       </c>
       <c r="O16" s="22" t="s">
@@ -2183,7 +2191,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="18" customFormat="1" ht="25.5" customHeight="1">
+    <row r="17" spans="1:16" s="18" customFormat="1" ht="25.5" hidden="1" customHeight="1">
       <c r="A17" s="20">
         <v>16</v>
       </c>
@@ -2223,7 +2231,7 @@
       <c r="M17" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="N17" s="62">
+      <c r="N17" s="58">
         <v>44708</v>
       </c>
       <c r="O17" s="20" t="s">
@@ -2233,7 +2241,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="18" customFormat="1">
+    <row r="18" spans="1:16" s="18" customFormat="1" hidden="1">
       <c r="A18" s="20">
         <v>17</v>
       </c>
@@ -2273,7 +2281,7 @@
       <c r="M18" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="N18" s="62">
+      <c r="N18" s="58">
         <v>44708</v>
       </c>
       <c r="O18" s="20" t="s">
@@ -2283,7 +2291,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="18" customFormat="1">
+    <row r="19" spans="1:16" s="18" customFormat="1" hidden="1">
       <c r="A19" s="20">
         <v>18</v>
       </c>
@@ -2323,7 +2331,7 @@
       <c r="M19" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="N19" s="62">
+      <c r="N19" s="58">
         <v>44708</v>
       </c>
       <c r="O19" s="20" t="s">
@@ -2373,7 +2381,7 @@
       <c r="M20" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="N20" s="64">
+      <c r="N20" s="60">
         <v>44498</v>
       </c>
       <c r="O20" s="22" t="s">
@@ -2383,7 +2391,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="21" spans="1:16" s="18" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A21" s="20">
         <v>20</v>
       </c>
@@ -2421,7 +2429,7 @@
       <c r="M21" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="N21" s="65">
+      <c r="N21" s="61">
         <v>44624</v>
       </c>
       <c r="O21" s="46" t="s">
@@ -2431,7 +2439,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="18" customFormat="1">
+    <row r="22" spans="1:16" s="18" customFormat="1" hidden="1">
       <c r="A22" s="20">
         <v>21</v>
       </c>
@@ -2469,7 +2477,7 @@
       <c r="M22" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="N22" s="66">
+      <c r="N22" s="62">
         <v>44736</v>
       </c>
       <c r="O22" s="46" t="s">
@@ -2479,7 +2487,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="18" customFormat="1">
+    <row r="23" spans="1:16" s="18" customFormat="1" hidden="1">
       <c r="A23" s="20">
         <v>22</v>
       </c>
@@ -2517,7 +2525,7 @@
       <c r="M23" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="N23" s="66">
+      <c r="N23" s="62">
         <v>44736</v>
       </c>
       <c r="O23" s="46" t="s">
@@ -2527,7 +2535,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="18" customFormat="1">
+    <row r="24" spans="1:16" s="18" customFormat="1" hidden="1">
       <c r="A24" s="20">
         <v>23</v>
       </c>
@@ -2565,7 +2573,7 @@
       <c r="M24" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="N24" s="66">
+      <c r="N24" s="62">
         <v>44736</v>
       </c>
       <c r="O24" s="46" t="s">
@@ -2575,7 +2583,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="18" customFormat="1">
+    <row r="25" spans="1:16" s="18" customFormat="1" hidden="1">
       <c r="A25" s="20">
         <v>24</v>
       </c>
@@ -2613,7 +2621,7 @@
       <c r="M25" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="N25" s="66">
+      <c r="N25" s="62">
         <v>44736</v>
       </c>
       <c r="O25" s="46" t="s">
@@ -2630,7 +2638,7 @@
       <c r="B26" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="C26" s="68" t="s">
+      <c r="C26" s="64" t="s">
         <v>178</v>
       </c>
       <c r="D26" s="47" t="s">
@@ -2663,7 +2671,7 @@
       <c r="M26" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="N26" s="66">
+      <c r="N26" s="62">
         <v>44512</v>
       </c>
       <c r="O26" s="22" t="s">
@@ -2673,7 +2681,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="18" customFormat="1">
+    <row r="27" spans="1:16" s="18" customFormat="1" hidden="1">
       <c r="A27" s="20">
         <v>26</v>
       </c>
@@ -2711,7 +2719,7 @@
       <c r="M27" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="N27" s="66">
+      <c r="N27" s="62">
         <v>44750</v>
       </c>
       <c r="O27" s="46" t="s">
@@ -2721,7 +2729,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="18" customFormat="1">
+    <row r="28" spans="1:16" s="18" customFormat="1" hidden="1">
       <c r="A28" s="20">
         <v>27</v>
       </c>
@@ -2759,7 +2767,7 @@
       <c r="M28" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="N28" s="66">
+      <c r="N28" s="62">
         <v>44750</v>
       </c>
       <c r="O28" s="46" t="s">
@@ -2769,7 +2777,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="18" customFormat="1">
+    <row r="29" spans="1:16" s="18" customFormat="1" hidden="1">
       <c r="A29" s="20">
         <v>28</v>
       </c>
@@ -2807,7 +2815,7 @@
       <c r="M29" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="N29" s="66">
+      <c r="N29" s="62">
         <v>44764</v>
       </c>
       <c r="O29" s="46" t="s">
@@ -2817,7 +2825,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="18" customFormat="1">
+    <row r="30" spans="1:16" s="18" customFormat="1" hidden="1">
       <c r="A30" s="20">
         <v>29</v>
       </c>
@@ -2855,7 +2863,7 @@
       <c r="M30" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="N30" s="66">
+      <c r="N30" s="62">
         <v>44764</v>
       </c>
       <c r="O30" s="46" t="s">
@@ -2865,7 +2873,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="18" customFormat="1">
+    <row r="31" spans="1:16" s="18" customFormat="1" hidden="1">
       <c r="A31" s="20">
         <v>30</v>
       </c>
@@ -2903,7 +2911,7 @@
       <c r="M31" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="N31" s="67">
+      <c r="N31" s="63">
         <v>44638</v>
       </c>
       <c r="O31" s="46" t="s">
@@ -2953,7 +2961,7 @@
       <c r="M32" s="45" t="s">
         <v>165</v>
       </c>
-      <c r="N32" s="67">
+      <c r="N32" s="63">
         <v>44905</v>
       </c>
       <c r="O32" s="22" t="s">
@@ -2963,7 +2971,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="1" customFormat="1" ht="25.5" customHeight="1">
+    <row r="33" spans="1:16" s="1" customFormat="1" ht="25.5" hidden="1" customHeight="1">
       <c r="A33" s="20">
         <v>32</v>
       </c>
@@ -3011,7 +3019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" hidden="1">
       <c r="A34" s="20">
         <v>33</v>
       </c>
@@ -3059,7 +3067,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" hidden="1">
       <c r="A35" s="20">
         <v>34</v>
       </c>
@@ -3107,7 +3115,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" hidden="1">
       <c r="A36" s="20">
         <v>35</v>
       </c>
@@ -3155,7 +3163,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" hidden="1">
       <c r="A37" s="20">
         <v>36</v>
       </c>
@@ -3207,7 +3215,9 @@
       <c r="A38" s="20">
         <v>37</v>
       </c>
-      <c r="B38" s="29"/>
+      <c r="B38" s="29" t="s">
+        <v>191</v>
+      </c>
       <c r="C38" s="39" t="s">
         <v>179</v>
       </c>
@@ -3249,7 +3259,7 @@
       </c>
       <c r="P38" s="47"/>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" hidden="1">
       <c r="A39" s="20">
         <v>38</v>
       </c>
@@ -3297,7 +3307,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" hidden="1">
       <c r="A40" s="20">
         <v>39</v>
       </c>
@@ -3387,7 +3397,13 @@
       <c r="D49" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P1" xr:uid="{7238BF90-C5A5-456F-9783-350906B6602C}">
+  <autoFilter ref="A1:P40" xr:uid="{7238BF90-C5A5-456F-9783-350906B6602C}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="COMPLETE"/>
+        <filter val="NOT REQUIRED"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P38">
       <sortCondition ref="A1"/>
     </sortState>
@@ -3439,14 +3455,14 @@
       </c>
     </row>
     <row r="2" spans="1:6 16332:16332">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="65" t="s">
         <v>161</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
     </row>
     <row r="3" spans="1:6 16332:16332">
       <c r="A3" s="34" t="s">
@@ -3907,22 +3923,22 @@
       <c r="F25" s="54"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="59"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
+      <c r="A26" s="67"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="57" t="s">
+      <c r="A27" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="B27" s="58"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="34" t="s">

--- a/Doc/iApply_Integration.xlsx
+++ b/Doc/iApply_Integration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ven-talent-axwar\Documents\ACWAR\iApply_Integration\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D939B91B-7695-4A70-84D3-771EAA942D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCDD196-FA7E-489A-928E-D2D2814C1250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{89D5BFD2-F8FE-4C40-A489-08526D236723}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="197">
   <si>
     <t>iApply Form Name</t>
   </si>
@@ -639,6 +639,21 @@
   </si>
   <si>
     <t>ODO</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>g</t>
   </si>
 </sst>
 </file>
@@ -1373,13 +1388,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7847A0BE-24C9-4B51-84A9-78CA288F75CC}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:P49"/>
+  <dimension ref="A1:P60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1549,7 +1564,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" hidden="1">
+    <row r="4" spans="1:16" s="1" customFormat="1">
       <c r="A4" s="20">
         <v>3</v>
       </c>
@@ -1599,7 +1614,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" hidden="1">
+    <row r="5" spans="1:16" s="1" customFormat="1">
       <c r="A5" s="20">
         <v>4</v>
       </c>
@@ -1691,7 +1706,7 @@
       <c r="O6" s="20"/>
       <c r="P6" s="39"/>
     </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" hidden="1">
+    <row r="7" spans="1:16" s="1" customFormat="1">
       <c r="A7" s="20">
         <v>6</v>
       </c>
@@ -1741,7 +1756,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="1" customFormat="1" hidden="1">
+    <row r="8" spans="1:16" s="1" customFormat="1">
       <c r="A8" s="20">
         <v>7</v>
       </c>
@@ -1841,7 +1856,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="1" customFormat="1" hidden="1">
+    <row r="10" spans="1:16" s="1" customFormat="1">
       <c r="A10" s="20">
         <v>9</v>
       </c>
@@ -1891,7 +1906,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="1" customFormat="1" hidden="1">
+    <row r="11" spans="1:16" s="1" customFormat="1">
       <c r="A11" s="20">
         <v>10</v>
       </c>
@@ -1941,7 +1956,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="2" customFormat="1" ht="25.5" hidden="1" customHeight="1">
+    <row r="12" spans="1:16" s="2" customFormat="1" ht="25.5" customHeight="1">
       <c r="A12" s="20">
         <v>11</v>
       </c>
@@ -1991,7 +2006,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="2" customFormat="1" ht="25.5" hidden="1" customHeight="1">
+    <row r="13" spans="1:16" s="2" customFormat="1" ht="25.5" customHeight="1">
       <c r="A13" s="20">
         <v>12</v>
       </c>
@@ -2002,28 +2017,28 @@
         <v>59</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="I13" s="20" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="J13" s="20" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="K13" s="20" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="L13" s="20" t="s">
         <v>10</v>
@@ -2041,7 +2056,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="1" customFormat="1" hidden="1">
+    <row r="14" spans="1:16" s="1" customFormat="1">
       <c r="A14" s="20">
         <v>13</v>
       </c>
@@ -2091,7 +2106,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="52" customFormat="1" ht="25.5" hidden="1" customHeight="1">
+    <row r="15" spans="1:16" s="52" customFormat="1" ht="25.5" customHeight="1">
       <c r="A15" s="20">
         <v>14</v>
       </c>
@@ -2191,7 +2206,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="18" customFormat="1" ht="25.5" hidden="1" customHeight="1">
+    <row r="17" spans="1:16" s="18" customFormat="1" ht="25.5" customHeight="1">
       <c r="A17" s="20">
         <v>16</v>
       </c>
@@ -2241,7 +2256,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="18" customFormat="1" hidden="1">
+    <row r="18" spans="1:16" s="18" customFormat="1">
       <c r="A18" s="20">
         <v>17</v>
       </c>
@@ -2291,7 +2306,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="18" customFormat="1" hidden="1">
+    <row r="19" spans="1:16" s="18" customFormat="1">
       <c r="A19" s="20">
         <v>18</v>
       </c>
@@ -2391,7 +2406,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="18" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="21" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="20">
         <v>20</v>
       </c>
@@ -2439,7 +2454,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="18" customFormat="1" hidden="1">
+    <row r="22" spans="1:16" s="18" customFormat="1">
       <c r="A22" s="20">
         <v>21</v>
       </c>
@@ -2487,7 +2502,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="18" customFormat="1" hidden="1">
+    <row r="23" spans="1:16" s="18" customFormat="1">
       <c r="A23" s="20">
         <v>22</v>
       </c>
@@ -2535,7 +2550,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="18" customFormat="1" hidden="1">
+    <row r="24" spans="1:16" s="18" customFormat="1">
       <c r="A24" s="20">
         <v>23</v>
       </c>
@@ -2583,7 +2598,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="18" customFormat="1" hidden="1">
+    <row r="25" spans="1:16" s="18" customFormat="1">
       <c r="A25" s="20">
         <v>24</v>
       </c>
@@ -2681,7 +2696,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="18" customFormat="1" hidden="1">
+    <row r="27" spans="1:16" s="18" customFormat="1">
       <c r="A27" s="20">
         <v>26</v>
       </c>
@@ -2729,7 +2744,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="18" customFormat="1" hidden="1">
+    <row r="28" spans="1:16" s="18" customFormat="1">
       <c r="A28" s="20">
         <v>27</v>
       </c>
@@ -2777,7 +2792,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="18" customFormat="1" hidden="1">
+    <row r="29" spans="1:16" s="18" customFormat="1">
       <c r="A29" s="20">
         <v>28</v>
       </c>
@@ -2825,7 +2840,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="18" customFormat="1" hidden="1">
+    <row r="30" spans="1:16" s="18" customFormat="1">
       <c r="A30" s="20">
         <v>29</v>
       </c>
@@ -2873,7 +2888,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="18" customFormat="1" hidden="1">
+    <row r="31" spans="1:16" s="18" customFormat="1">
       <c r="A31" s="20">
         <v>30</v>
       </c>
@@ -2971,7 +2986,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="1" customFormat="1" ht="25.5" hidden="1" customHeight="1">
+    <row r="33" spans="1:16" s="1" customFormat="1" ht="25.5" customHeight="1">
       <c r="A33" s="20">
         <v>32</v>
       </c>
@@ -3019,7 +3034,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:16" hidden="1">
+    <row r="34" spans="1:16">
       <c r="A34" s="20">
         <v>33</v>
       </c>
@@ -3067,7 +3082,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:16" hidden="1">
+    <row r="35" spans="1:16">
       <c r="A35" s="20">
         <v>34</v>
       </c>
@@ -3115,7 +3130,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:16" hidden="1">
+    <row r="36" spans="1:16">
       <c r="A36" s="20">
         <v>35</v>
       </c>
@@ -3163,7 +3178,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:16" hidden="1">
+    <row r="37" spans="1:16">
       <c r="A37" s="20">
         <v>36</v>
       </c>
@@ -3259,7 +3274,7 @@
       </c>
       <c r="P38" s="47"/>
     </row>
-    <row r="39" spans="1:16" hidden="1">
+    <row r="39" spans="1:16">
       <c r="A39" s="20">
         <v>38</v>
       </c>
@@ -3307,7 +3322,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:16" hidden="1">
+    <row r="40" spans="1:16">
       <c r="A40" s="20">
         <v>39</v>
       </c>
@@ -3392,18 +3407,51 @@
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
     </row>
-    <row r="49" spans="3:4">
+    <row r="49" spans="3:5">
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
     </row>
+    <row r="56" spans="3:5">
+      <c r="D56" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E56">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5">
+      <c r="D57" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E57">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5">
+      <c r="D58" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E58">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5">
+      <c r="D59" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E59">
+        <f>28*4</f>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="60" spans="3:5">
+      <c r="E60">
+        <f>E59+E58+E57+E56</f>
+        <v>1307</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:P40" xr:uid="{7238BF90-C5A5-456F-9783-350906B6602C}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="COMPLETE"/>
-        <filter val="NOT REQUIRED"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P38">
       <sortCondition ref="A1"/>
     </sortState>
@@ -3419,10 +3467,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20553A5C-2519-4299-A1F7-E6E69CB2C0B9}">
-  <dimension ref="A1:XDD34"/>
+  <dimension ref="A1:XDD55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4078,6 +4126,64 @@
       </c>
       <c r="F34" s="17" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="E45">
+        <f>10.4*4</f>
+        <v>41.6</v>
+      </c>
+    </row>
+    <row r="49" spans="5:6">
+      <c r="E49" t="s">
+        <v>192</v>
+      </c>
+      <c r="F49">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="50" spans="5:6">
+      <c r="E50" t="s">
+        <v>193</v>
+      </c>
+      <c r="F50">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="5:6">
+      <c r="E51" t="s">
+        <v>194</v>
+      </c>
+      <c r="F51">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="52" spans="5:6">
+      <c r="E52" t="s">
+        <v>195</v>
+      </c>
+      <c r="F52">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="5:6">
+      <c r="E53" t="s">
+        <v>196</v>
+      </c>
+      <c r="F53">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="5:6">
+      <c r="F54">
+        <f>F53+F52+F51+F50+F49</f>
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="55" spans="5:6">
+      <c r="F55">
+        <f>4400-1310</f>
+        <v>3090</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/iApply_Integration.xlsx
+++ b/Doc/iApply_Integration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ven-talent-axwar\Documents\ACWAR\iApply_Integration\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCDD196-FA7E-489A-928E-D2D2814C1250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7431F3FA-86E1-4A5C-A265-C583885E9118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{89D5BFD2-F8FE-4C40-A489-08526D236723}"/>
   </bookViews>
@@ -1394,7 +1394,7 @@
   <dimension ref="A1:P60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2043,8 +2043,8 @@
       <c r="L13" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="M13" s="20" t="s">
-        <v>10</v>
+      <c r="M13" s="45" t="s">
+        <v>106</v>
       </c>
       <c r="N13" s="59">
         <v>44666</v>

--- a/Doc/iApply_Integration.xlsx
+++ b/Doc/iApply_Integration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ven-talent-axwar\Documents\ACWAR\iApply_Integration\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7431F3FA-86E1-4A5C-A265-C583885E9118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17FBE29-51D3-4CC0-B183-10DC154BBF3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{89D5BFD2-F8FE-4C40-A489-08526D236723}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{89D5BFD2-F8FE-4C40-A489-08526D236723}"/>
   </bookViews>
   <sheets>
     <sheet name="iApply_Integration_Overall_Stat" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="198">
   <si>
     <t>iApply Form Name</t>
   </si>
@@ -654,6 +654,9 @@
   </si>
   <si>
     <t>g</t>
+  </si>
+  <si>
+    <t>LIVE - 01 Jul 2022 [1:12 PM]</t>
   </si>
 </sst>
 </file>
@@ -1391,7 +1394,7 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:P60"/>
+  <dimension ref="A1:P52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
@@ -2041,7 +2044,7 @@
         <v>69</v>
       </c>
       <c r="L13" s="20" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M13" s="45" t="s">
         <v>106</v>
@@ -2049,8 +2052,8 @@
       <c r="N13" s="59">
         <v>44666</v>
       </c>
-      <c r="O13" s="20" t="s">
-        <v>10</v>
+      <c r="O13" s="31" t="s">
+        <v>197</v>
       </c>
       <c r="P13" s="39" t="s">
         <v>163</v>
@@ -3407,47 +3410,14 @@
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
     </row>
-    <row r="49" spans="3:5">
+    <row r="49" spans="3:4">
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
     </row>
-    <row r="56" spans="3:5">
-      <c r="D56" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E56">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="57" spans="3:5">
-      <c r="D57" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="E57">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="58" spans="3:5">
-      <c r="D58" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="E58">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="59" spans="3:5">
-      <c r="D59" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E59">
-        <f>28*4</f>
-        <v>112</v>
-      </c>
-    </row>
-    <row r="60" spans="3:5">
-      <c r="E60">
-        <f>E59+E58+E57+E56</f>
-        <v>1307</v>
+    <row r="52" spans="3:4">
+      <c r="C52" s="3">
+        <f>631+137+137+137</f>
+        <v>1042</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/iApply_Integration.xlsx
+++ b/Doc/iApply_Integration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ven-talent-axwar\Documents\ACWAR\iApply_Integration\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17FBE29-51D3-4CC0-B183-10DC154BBF3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CED0D4-41ED-4F35-9953-DA48F430EFD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{89D5BFD2-F8FE-4C40-A489-08526D236723}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="43200" windowHeight="17235" xr2:uid="{89D5BFD2-F8FE-4C40-A489-08526D236723}"/>
   </bookViews>
   <sheets>
     <sheet name="iApply_Integration_Overall_Stat" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="201">
   <si>
     <t>iApply Form Name</t>
   </si>
@@ -657,6 +657,15 @@
   </si>
   <si>
     <t>LIVE - 01 Jul 2022 [1:12 PM]</t>
+  </si>
+  <si>
+    <t>Consumer complaints</t>
+  </si>
+  <si>
+    <t>COM</t>
+  </si>
+  <si>
+    <t>Work in Progress</t>
   </si>
 </sst>
 </file>
@@ -1397,7 +1406,7 @@
   <dimension ref="A1:P52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3370,6 +3379,56 @@
         <v>10</v>
       </c>
       <c r="P40" s="47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" s="20">
+        <v>39</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="C41" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="D41" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="E41" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="F41" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="G41" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="H41" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="I41" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="J41" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="K41" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="L41" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="M41" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="N41" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="O41" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="P41" s="47" t="s">
         <v>10</v>
       </c>
     </row>
